--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -52,12 +52,12 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -70,160 +70,172 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>good</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>simple</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>highly</t>
@@ -232,115 +244,103 @@
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
+    <t>exactly</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>anyone</t>
-  </si>
-  <si>
     <t>far</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>making</t>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -773,13 +773,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -847,13 +847,13 @@
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -873,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.55</v>
+        <v>0.475</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3773584905660378</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8374613003095975</v>
+        <v>0.8544891640866873</v>
       </c>
       <c r="L6">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="M6">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2868217054263566</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.7241379310344828</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2626262626262627</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7229437229437229</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2307692307692308</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1135135135135135</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1173,13 +1173,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7045454545454546</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.6847457627118644</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L12">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,10 +1228,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1251,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6457142857142857</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1277,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6380417335473515</v>
+        <v>0.6474576271186441</v>
       </c>
       <c r="L15">
-        <v>795</v>
+        <v>191</v>
       </c>
       <c r="M15">
-        <v>795</v>
+        <v>191</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>451</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1303,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6304347826086957</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1329,13 +1329,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6301369863013698</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>786</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>786</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1355,13 +1355,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6176470588235294</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1381,13 +1381,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.609375</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1407,13 +1407,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.5982905982905983</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1433,13 +1433,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.5915492957746479</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1459,13 +1459,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.5857142857142857</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1485,13 +1485,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5421686746987951</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1511,13 +1511,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5288461538461539</v>
+        <v>0.546875</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1537,13 +1537,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5029940119760479</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L25">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1563,13 +1563,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4912280701754386</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1589,13 +1589,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.49</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1615,13 +1615,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4887218045112782</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1641,13 +1641,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4861111111111111</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1667,13 +1667,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4615384615384616</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1693,13 +1693,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4397590361445783</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L31">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M31">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1719,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4126984126984127</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1745,13 +1745,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4102564102564102</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1771,13 +1771,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4074074074074074</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1797,13 +1797,13 @@
         <v>49</v>
       </c>
       <c r="K35">
-        <v>0.3934426229508197</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1823,13 +1823,13 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>0.3877551020408163</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1849,13 +1849,13 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.3725490196078431</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1875,13 +1875,13 @@
         <v>52</v>
       </c>
       <c r="K38">
-        <v>0.3693693693693694</v>
+        <v>0.377431906614786</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1901,13 +1901,13 @@
         <v>53</v>
       </c>
       <c r="K39">
-        <v>0.3627450980392157</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L39">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>260</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1927,13 +1927,13 @@
         <v>54</v>
       </c>
       <c r="K40">
-        <v>0.3538461538461539</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1953,13 +1953,13 @@
         <v>55</v>
       </c>
       <c r="K41">
-        <v>0.3392857142857143</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1979,13 +1979,13 @@
         <v>56</v>
       </c>
       <c r="K42">
-        <v>0.3385214007782101</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L42">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>170</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2005,13 +2005,13 @@
         <v>57</v>
       </c>
       <c r="K43">
-        <v>0.3308270676691729</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2031,13 +2031,13 @@
         <v>58</v>
       </c>
       <c r="K44">
-        <v>0.3301369863013698</v>
+        <v>0.3273972602739726</v>
       </c>
       <c r="L44">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M44">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2057,13 +2057,13 @@
         <v>59</v>
       </c>
       <c r="K45">
-        <v>0.3093525179856115</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2083,13 +2083,13 @@
         <v>60</v>
       </c>
       <c r="K46">
-        <v>0.2903225806451613</v>
+        <v>0.2822966507177033</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2109,13 +2109,13 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.277511961722488</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L47">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>151</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2135,13 +2135,13 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.2673267326732673</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2161,13 +2161,13 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.2631578947368421</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2187,13 +2187,13 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.2561894510226049</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L50">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>691</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2213,13 +2213,13 @@
         <v>65</v>
       </c>
       <c r="K51">
-        <v>0.25</v>
+        <v>0.2551130247578041</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>57</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2239,13 +2239,13 @@
         <v>66</v>
       </c>
       <c r="K52">
-        <v>0.2317880794701987</v>
+        <v>0.25</v>
       </c>
       <c r="L52">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2265,13 +2265,13 @@
         <v>67</v>
       </c>
       <c r="K53">
-        <v>0.2235294117647059</v>
+        <v>0.25</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2291,13 +2291,13 @@
         <v>68</v>
       </c>
       <c r="K54">
-        <v>0.219435736677116</v>
+        <v>0.25</v>
       </c>
       <c r="L54">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>249</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2317,13 +2317,13 @@
         <v>69</v>
       </c>
       <c r="K55">
-        <v>0.2083333333333333</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>57</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2343,13 +2343,13 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>0.1981981981981982</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2369,13 +2369,13 @@
         <v>71</v>
       </c>
       <c r="K57">
-        <v>0.1960264900662252</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L57">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>607</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2395,13 +2395,13 @@
         <v>72</v>
       </c>
       <c r="K58">
-        <v>0.1892583120204604</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="L58">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>634</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2421,13 +2421,13 @@
         <v>73</v>
       </c>
       <c r="K59">
-        <v>0.1809523809523809</v>
+        <v>0.20076726342711</v>
       </c>
       <c r="L59">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="M59">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>86</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2447,13 +2447,13 @@
         <v>74</v>
       </c>
       <c r="K60">
-        <v>0.1720430107526882</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2473,13 +2473,13 @@
         <v>75</v>
       </c>
       <c r="K61">
-        <v>0.1639344262295082</v>
+        <v>0.1947019867549669</v>
       </c>
       <c r="L61">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>102</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2499,25 +2499,25 @@
         <v>76</v>
       </c>
       <c r="K62">
-        <v>0.1610738255033557</v>
+        <v>0.1875</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2525,13 +2525,13 @@
         <v>77</v>
       </c>
       <c r="K63">
-        <v>0.16</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2551,13 +2551,13 @@
         <v>78</v>
       </c>
       <c r="K64">
-        <v>0.1580756013745704</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L64">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>245</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2577,25 +2577,25 @@
         <v>79</v>
       </c>
       <c r="K65">
-        <v>0.1574074074074074</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2603,25 +2603,25 @@
         <v>80</v>
       </c>
       <c r="K66">
-        <v>0.1517857142857143</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>95</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2629,13 +2629,13 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>0.1515151515151515</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2655,13 +2655,13 @@
         <v>82</v>
       </c>
       <c r="K68">
-        <v>0.1467889908256881</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2681,13 +2681,13 @@
         <v>83</v>
       </c>
       <c r="K69">
-        <v>0.1454545454545454</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M69">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>141</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2707,13 +2707,13 @@
         <v>84</v>
       </c>
       <c r="K70">
-        <v>0.1411192214111922</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="L70">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="M70">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>353</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2733,25 +2733,25 @@
         <v>85</v>
       </c>
       <c r="K71">
-        <v>0.1363636363636364</v>
+        <v>0.125</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>152</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2759,13 +2759,13 @@
         <v>86</v>
       </c>
       <c r="K72">
-        <v>0.1333333333333333</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M72">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2785,13 +2785,13 @@
         <v>87</v>
       </c>
       <c r="K73">
-        <v>0.1324324324324324</v>
+        <v>0.1184510250569476</v>
       </c>
       <c r="L73">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M73">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N73">
         <v>0.98</v>
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>321</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2811,13 +2811,13 @@
         <v>88</v>
       </c>
       <c r="K74">
-        <v>0.1318181818181818</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L74">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>382</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2837,13 +2837,13 @@
         <v>89</v>
       </c>
       <c r="K75">
-        <v>0.1280487804878049</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L75">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2863,13 +2863,13 @@
         <v>90</v>
       </c>
       <c r="K76">
-        <v>0.124031007751938</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>113</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2889,13 +2889,13 @@
         <v>91</v>
       </c>
       <c r="K77">
-        <v>0.1182266009852217</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2915,13 +2915,13 @@
         <v>92</v>
       </c>
       <c r="K78">
-        <v>0.1143911439114391</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L78">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>240</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2941,13 +2941,13 @@
         <v>93</v>
       </c>
       <c r="K79">
-        <v>0.1104294478527607</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2967,13 +2967,13 @@
         <v>94</v>
       </c>
       <c r="K80">
-        <v>0.1025641025641026</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="L80">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2993,13 +2993,13 @@
         <v>95</v>
       </c>
       <c r="K81">
-        <v>0.1008403361344538</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="L81">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3019,13 +3019,13 @@
         <v>96</v>
       </c>
       <c r="K82">
-        <v>0.0883054892601432</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="L82">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M82">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>382</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3045,13 +3045,13 @@
         <v>97</v>
       </c>
       <c r="K83">
-        <v>0.08771929824561403</v>
+        <v>0.0883054892601432</v>
       </c>
       <c r="L83">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M83">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3071,25 +3071,25 @@
         <v>98</v>
       </c>
       <c r="K84">
-        <v>0.08743169398907104</v>
+        <v>0.08477011494252873</v>
       </c>
       <c r="L84">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="M84">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>334</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3097,13 +3097,13 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>0.08173076923076923</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="L85">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>191</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3123,25 +3123,25 @@
         <v>100</v>
       </c>
       <c r="K86">
-        <v>0.07476635514018691</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L86">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M86">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N86">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>990</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3149,25 +3149,25 @@
         <v>101</v>
       </c>
       <c r="K87">
-        <v>0.07460545193687231</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="L87">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M87">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="N87">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="O87">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>645</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3175,13 +3175,13 @@
         <v>102</v>
       </c>
       <c r="K88">
-        <v>0.06598984771573604</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L88">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M88">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>368</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3201,25 +3201,25 @@
         <v>103</v>
       </c>
       <c r="K89">
-        <v>0.06451612903225806</v>
+        <v>0.06816059757236227</v>
       </c>
       <c r="L89">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="M89">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>232</v>
+        <v>998</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3227,13 +3227,13 @@
         <v>104</v>
       </c>
       <c r="K90">
-        <v>0.05719557195571956</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="L90">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M90">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>511</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3253,25 +3253,25 @@
         <v>105</v>
       </c>
       <c r="K91">
-        <v>0.04347826086956522</v>
+        <v>0.05175600739371534</v>
       </c>
       <c r="L91">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M91">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>396</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3279,25 +3279,25 @@
         <v>106</v>
       </c>
       <c r="K92">
-        <v>0.04155124653739612</v>
+        <v>0.0467032967032967</v>
       </c>
       <c r="L92">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M92">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N92">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O92">
-        <v>0.21</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3305,25 +3305,25 @@
         <v>107</v>
       </c>
       <c r="K93">
-        <v>0.03732638888888889</v>
+        <v>0.04116222760290557</v>
       </c>
       <c r="L93">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N93">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O93">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>1109</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3331,25 +3331,25 @@
         <v>108</v>
       </c>
       <c r="K94">
-        <v>0.0345489443378119</v>
+        <v>0.03209019947961839</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M94">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N94">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O94">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>503</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3357,25 +3357,25 @@
         <v>109</v>
       </c>
       <c r="K95">
-        <v>0.02102496714848883</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L95">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M95">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N95">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="O95">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
